--- a/01_분석_설계/01_일정관리.xlsx
+++ b/01_분석_설계/01_일정관리.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\team_project\01_산출물관리\01_분석_설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\team_project\gitFiles\LottoTeamProject\01_분석_설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EDC293-BA62-4B8E-94E7-41618F84CC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B95C42F-6149-4F24-B183-677E14029D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1381,34 +1381,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1432,22 +1441,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1668,7 +1668,7 @@
   <dimension ref="A1:AB995"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1717,24 +1717,24 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="40" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="2"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
       <c r="Q2" s="41"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -1753,24 +1753,24 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="44">
         <v>45399</v>
       </c>
       <c r="D3" s="41"/>
       <c r="E3" s="2"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
       <c r="Q3" s="41"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -1789,24 +1789,24 @@
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="44">
         <v>45429</v>
       </c>
       <c r="D4" s="41"/>
       <c r="E4" s="2"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
       <c r="Q4" s="41"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -1825,7 +1825,7 @@
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="40" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="41"/>
@@ -1859,7 +1859,7 @@
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="44">
         <v>45398</v>
       </c>
       <c r="D6" s="41"/>
@@ -1893,7 +1893,7 @@
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="40" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="41"/>
@@ -1901,18 +1901,18 @@
       <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
       <c r="Q7" s="41"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -1988,98 +1988,98 @@
     </row>
     <row r="10" spans="1:28" ht="15" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="47" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="48"/>
-      <c r="AB10" s="49"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="52"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
       <c r="H11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="50" t="s">
+      <c r="I11" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="50" t="s">
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="50" t="s">
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="51" t="s">
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="53"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="56"/>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
       <c r="H12" s="9" t="s">
         <v>22</v>
       </c>
@@ -2146,7 +2146,7 @@
     </row>
     <row r="13" spans="1:28" ht="19.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="57" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -2186,7 +2186,7 @@
     </row>
     <row r="14" spans="1:28" ht="19.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="38"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="19" t="s">
         <v>26</v>
       </c>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -2223,16 +2223,16 @@
     </row>
     <row r="15" spans="1:28" ht="19.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="58" t="s">
+      <c r="B15" s="48"/>
+      <c r="C15" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="39" t="s">
         <v>45</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -2267,7 +2267,7 @@
       <c r="C16" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="37" t="s">
         <v>43</v>
       </c>
       <c r="E16" s="13"/>
@@ -31710,12 +31710,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:Q2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G3:Q3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:Q4"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G7:Q7"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
@@ -31724,14 +31726,12 @@
     <mergeCell ref="N11:R11"/>
     <mergeCell ref="S11:W11"/>
     <mergeCell ref="X11:AB11"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G7:Q7"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:Q2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G3:Q3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/01_분석_설계/01_일정관리.xlsx
+++ b/01_분석_설계/01_일정관리.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\team_project\gitFiles\LottoTeamProject\01_분석_설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B95C42F-6149-4F24-B183-677E14029D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4324A46E-D05D-4295-832C-FD6D8F36249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1390,31 +1390,31 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1441,14 +1441,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1667,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1717,25 +1717,25 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="41"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="2"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="41"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="43"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -1753,25 +1753,25 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="42">
         <v>45399</v>
       </c>
-      <c r="D3" s="41"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="2"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="41"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="43"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
@@ -1789,25 +1789,25 @@
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="44">
-        <v>45429</v>
+      <c r="C4" s="42">
+        <v>45428</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="2"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="41"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="43"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -1825,10 +1825,10 @@
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="41"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1859,10 +1859,10 @@
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="42">
         <v>45398</v>
       </c>
-      <c r="D6" s="41"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1893,27 +1893,27 @@
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="41"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="2"/>
       <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="41"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="43"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -2034,12 +2034,12 @@
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
       <c r="H11" s="9" t="s">
         <v>17</v>
       </c>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="59"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="49"/>
       <c r="D12" s="49"/>
       <c r="E12" s="49"/>
@@ -2146,7 +2146,7 @@
     </row>
     <row r="13" spans="1:28" ht="19.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="40" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -2186,7 +2186,7 @@
     </row>
     <row r="14" spans="1:28" ht="19.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="48"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="19" t="s">
         <v>26</v>
       </c>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="15" spans="1:28" ht="19.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="48"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="38" t="s">
         <v>44</v>
       </c>
@@ -31710,6 +31710,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:Q2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G3:Q3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:Q4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="I10:AB10"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="S11:W11"/>
+    <mergeCell ref="X11:AB11"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
@@ -31718,20 +31732,6 @@
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="E10:E12"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="I10:AB10"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="S11:W11"/>
-    <mergeCell ref="X11:AB11"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:Q2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G3:Q3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
